--- a/assets/disciplinas/LOQ4232.xlsx
+++ b/assets/disciplinas/LOQ4232.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introduzir as técnicas de fabricação de dispositivos e circuitos integrados em microeletrônica. Apresenta os princípios, técnicas, equipamentos e softwares utilizados na simulação e fabricação de dispositivos em silício e arseneto de gálio de uma maneira global e genérica.</t>
+    <t>5840535 - Messias Borges Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840535 - Messias Borges Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Processos de fabricação típicos e de montagem de sistemas eletroeletronicos</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Técnicas de obtenção de silício cristalino e arseneto de gálio. Processamento de lâminas de silício e GaAs. Rede e Defeitos cristalinos. Oxidação. Dopagem (difusão e implantação iônica). Litografia: (Fabricação de Fotomáscaras; Gerador de Padrões). Epitaxia. Deposição em Fase Vapor (CVD. PECVD e LPCVD). Decapagem (úmida e seca). Equipamentos e técnicas de metalização (Evaporação térmica, feixe iônico, bombardeamento catódico ("sputtering"), Caracterização de etapas de processo de fabricação. Simulação de processos de fabricação. Montagem de Sistemas Eletro Eletrônicos</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas auxiliadas por transparências e métodos multimídia (datashow + computador) São previstas três aulas práticas com visitas em ambientes de fabricação de circuitos integrados (salas limpas) e montagem de produtos eletroeletrônicos. Duas prvas e relatórios de trabalhos práticos e visitas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média geral MG = [0,6 x (média aritmética das 2 provas feitas) + 0,2 x média dos trabalhos práticos + 0,2 x (média aritmética dos relatórios de visitas)] &gt;= 5,0. Os testes serão dados nos 10 minutos finais de N aulas escolhidas aleatoriamente. A prova substitutiva substitui a prova em que o aluno faltou.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>1 (uma) prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>01 Stephen A. Campbell, The Science and Engineering of Microelectronic Fabrication, 2nd edition, Oxford University Press, 2001;02 S.M. Sze - VLSI Technology, McGraw-Hill, 1988;03 V. Baranauskas, org., Processos em Microeletrônica, SBV e SBMicro, 1990;04 R. A. Levy, Microelectronic Materials and Processes, Kluwer Academic Publ., 1989;[05] M. Madou, Fundamentals of Microfabrication, CRC press, 1997.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4232.xlsx
+++ b/assets/disciplinas/LOQ4232.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Introduzir as técnicas de fabricação de dispositivos e circuitos integrados em microeletrônica. Apresenta os princípios, técnicas, equipamentos e softwares utilizados na simulação e fabricação de dispositivos em silício e arseneto de gálio de uma maneira global e genérica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840535 - Messias Borges Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Processos de fabricação típicos e de montagem de sistemas eletroeletronicos</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Técnicas de obtenção de silício cristalino e arseneto de gálio. Processamento de lâminas de silício e GaAs. Rede e Defeitos cristalinos. Oxidação. Dopagem (difusão e implantação iônica). Litografia: (Fabricação de Fotomáscaras; Gerador de Padrões). Epitaxia. Deposição em Fase Vapor (CVD. PECVD e LPCVD). Decapagem (úmida e seca). Equipamentos e técnicas de metalização (Evaporação térmica, feixe iônico, bombardeamento catódico ("sputtering"), Caracterização de etapas de processo de fabricação. Simulação de processos de fabricação. Montagem de Sistemas Eletro Eletrônicos</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas auxiliadas por transparências e métodos multimídia (datashow + computador) São previstas três aulas práticas com visitas em ambientes de fabricação de circuitos integrados (salas limpas) e montagem de produtos eletroeletrônicos. Duas prvas e relatórios de trabalhos práticos e visitas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas auxiliadas por transparências e métodos multimídia (datashow + computador) São previstas três aulas práticas com visitas em ambientes de fabricação de circuitos integrados (salas limpas) e montagem de produtos eletroeletrônicos. Duas prvas e relatórios de trabalhos práticos e visitas.</t>
+    <t>Média geral MG = [0,6 x (média aritmética das 2 provas feitas) + 0,2 x média dos trabalhos práticos + 0,2 x (média aritmética dos relatórios de visitas)] &gt;= 5,0. Os testes serão dados nos 10 minutos finais de N aulas escolhidas aleatoriamente. A prova substitutiva substitui a prova em que o aluno faltou.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média geral MG = [0,6 x (média aritmética das 2 provas feitas) + 0,2 x média dos trabalhos práticos + 0,2 x (média aritmética dos relatórios de visitas)] &gt;= 5,0. Os testes serão dados nos 10 minutos finais de N aulas escolhidas aleatoriamente. A prova substitutiva substitui a prova em que o aluno faltou.</t>
+    <t>1 (uma) prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1 (uma) prova de recuperação.</t>
+    <t>01 Stephen A. Campbell, The Science and Engineering of Microelectronic Fabrication, 2nd edition, Oxford University Press, 2001;02 S.M. Sze - VLSI Technology, McGraw-Hill, 1988;03 V. Baranauskas, org., Processos em Microeletrônica, SBV e SBMicro, 1990;04 R. A. Levy, Microelectronic Materials and Processes, Kluwer Academic Publ., 1989;[05] M. Madou, Fundamentals of Microfabrication, CRC press, 1997.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +612,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
